--- a/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 20,99</t>
+          <t>5,59; 21,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +735,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,89</t>
+          <t>0,0; 13,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,38</t>
+          <t>2,34; 18,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 25,81</t>
+          <t>4,54; 25,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,45</t>
+          <t>0,0; 34,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 13,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,61</t>
+          <t>6,24; 21,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 20,48</t>
+          <t>6,88; 19,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,96</t>
+          <t>0,0; 18,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,54</t>
+          <t>0,0; 7,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 15,95</t>
+          <t>5,87; 16,42</t>
         </is>
       </c>
     </row>
@@ -864,32 +865,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 35,8</t>
+          <t>7,19; 35,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,05</t>
+          <t>0,0; 21,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,36</t>
+          <t>0,0; 18,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 21,51</t>
+          <t>3,6; 21,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 22,94</t>
+          <t>2,83; 24,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,89</t>
+          <t>0,0; 64,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 35,12</t>
+          <t>6,61; 33,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 23,58</t>
+          <t>7,57; 25,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,27</t>
+          <t>0,0; 25,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,49</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 22,12</t>
+          <t>6,35; 23,9</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 18,01</t>
+          <t>4,76; 18,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 23,77</t>
+          <t>2,88; 25,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 17,88</t>
+          <t>3,02; 16,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 39,82</t>
+          <t>13,69; 40,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,87</t>
+          <t>0,0; 26,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 29,31</t>
+          <t>2,78; 31,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 16,51</t>
+          <t>4,3; 16,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,16</t>
+          <t>1,76; 15,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,37</t>
+          <t>2,74; 15,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 34,47</t>
+          <t>11,93; 34,16</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,66</t>
+          <t>3,32; 10,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 16,35</t>
+          <t>1,93; 16,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,52</t>
+          <t>4,3; 13,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 24,92</t>
+          <t>6,45; 26,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>0,0; 8,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,16</t>
+          <t>3,64; 13,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,91</t>
+          <t>4,76; 11,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,46</t>
+          <t>1,17; 10,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,03</t>
+          <t>0,43; 4,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,83</t>
+          <t>4,8; 11,68</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 20,75</t>
+          <t>4,16; 20,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,17 +1295,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,52</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 20,0</t>
+          <t>2,04; 18,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 15,95</t>
+          <t>2,95; 16,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,17 +1315,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,71</t>
+          <t>0,0; 17,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,83</t>
+          <t>0,88; 6,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 15,4</t>
+          <t>4,6; 15,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,62</t>
+          <t>0,88; 9,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 8,02</t>
+          <t>1,83; 8,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,37</t>
+          <t>6,64; 12,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,34</t>
+          <t>2,68; 9,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,74</t>
+          <t>1,95; 6,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,13</t>
+          <t>7,88; 15,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 15,42</t>
+          <t>7,33; 15,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,9; 7,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,23</t>
+          <t>0,87; 5,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,24</t>
+          <t>5,02; 10,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,54; 12,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,88</t>
+          <t>2,34; 7,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,95</t>
+          <t>1,9; 4,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,24</t>
+          <t>6,94; 11,98</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene algún otro problema</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7621</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6102</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7348</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13723</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2141</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10708</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3635; 13730</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1880</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6145</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1074; 8620</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2119; 12087</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6086</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6170</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3699; 12499</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7682; 22162</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7554</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6667</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6165; 17257</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4939</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11848</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11035</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3045; 14832</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4464</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5556</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1827; 10917</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1177; 9987</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4000</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1932</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2786; 13968</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6355; 21048</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6835</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5494</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5903; 22210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9518</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14012</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16076</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4757; 18263</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>934; 8334</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2019; 10812</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8010; 23826</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4294</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1793</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>496; 5644</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5007; 19375</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>928; 7922</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2096; 12139</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9111; 26087</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10477</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8160</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19494</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18637</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6677; 20787</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1031; 9067</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6643</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5722; 17980</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3220; 13177</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6926</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3845; 14707</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11947; 28888</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1037; 9236</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>939; 9701</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11475; 27916</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6475</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5062</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2286</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11537</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7767</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2664; 13418</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7011</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1046; 9276</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1934; 11006</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8422</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1122; 8314</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5967; 20257</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2174</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1024; 10607</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3265; 15281</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>43508</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7827</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27447</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>64223</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>31374; 57283</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3828; 13864</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6822; 21090</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26759; 51294</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16145; 34298</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>901; 7739</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11770</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17678; 38585</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>52223; 84638</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5690; 18377</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10744; 26956</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>48028; 82907</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
